--- a/cp1/Andrievich_fb-92_cp1/character_frequency_with_whitespaces.xlsx
+++ b/cp1/Andrievich_fb-92_cp1/character_frequency_with_whitespaces.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1338434206869442</v>
+        <v>0.1584982700811985</v>
       </c>
     </row>
     <row r="3">
@@ -457,17 +457,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09471932143948432</v>
+        <v>0.09311170111730664</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>и</t>
+          <t>а</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07970076513103042</v>
+        <v>0.07268895089112978</v>
       </c>
     </row>
     <row r="5">
@@ -477,57 +477,57 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07022376589416532</v>
+        <v>0.06841304748518066</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>а</t>
+          <t>и</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06948519871449388</v>
+        <v>0.05759173353481717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>т</t>
+          <t>н</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06410026087851108</v>
+        <v>0.0539602407112717</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>н</t>
+          <t>т</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05674529873583709</v>
+        <v>0.05074240882926918</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>с</t>
+          <t>л</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04811742143318885</v>
+        <v>0.04421528941492303</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>л</t>
+          <t>с</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04078856249644919</v>
+        <v>0.04265491531910284</v>
       </c>
     </row>
     <row r="11">
@@ -537,57 +537,57 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0399747566643788</v>
+        <v>0.03994220002898441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>к</t>
+          <t>в</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03546965041665323</v>
+        <v>0.03962984380781932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>в</t>
+          <t>к</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03161865979998802</v>
+        <v>0.03078115788481372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>п</t>
+          <t>у</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02660223781248992</v>
+        <v>0.02529100484433545</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>з</t>
+          <t>м</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02566559336425795</v>
+        <v>0.02525582959420425</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>м</t>
+          <t>п</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02198964777562298</v>
+        <v>0.0239247981292395</v>
       </c>
     </row>
     <row r="17">
@@ -597,27 +597,27 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02017777818723983</v>
+        <v>0.02365465220823185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>я</t>
+          <t>г</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01877741796299794</v>
+        <v>0.01611729961011753</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>г</t>
+          <t>я</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01751064473383175</v>
+        <v>0.01604694910985512</v>
       </c>
     </row>
     <row r="20">
@@ -627,77 +627,77 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01449649218976724</v>
+        <v>0.01522103423677446</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>й</t>
+          <t>з</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01219480361943982</v>
+        <v>0.0149593303757983</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ю</t>
+          <t>ы</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01197983604115708</v>
+        <v>0.01455551850429208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>б</t>
+          <t>ч</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01092649490757162</v>
+        <v>0.01338066514990988</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>у</t>
+          <t>б</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01049809523370814</v>
+        <v>0.01303172666860834</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ж</t>
+          <t>й</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00910234145757231</v>
+        <v>0.009864547146794762</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ч</t>
+          <t>ж</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.008620199889138149</v>
+        <v>0.007582376918282266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ы</t>
+          <t>ш</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.008503503203784658</v>
+        <v>0.007347406247405825</v>
       </c>
     </row>
     <row r="28">
@@ -707,17 +707,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.006017556709214892</v>
+        <v>0.006923896235826133</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ш</t>
+          <t>ю</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003745042310225854</v>
+        <v>0.004443337596573649</v>
       </c>
     </row>
     <row r="30">
@@ -727,37 +727,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003591494040023892</v>
+        <v>0.00297723317110508</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>э</t>
+          <t>ц</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002401494945958686</v>
+        <v>0.002791507850412324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ф</t>
+          <t>э</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001209960369191461</v>
+        <v>0.002584677379640847</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ц</t>
+          <t>ф</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001202282955681363</v>
+        <v>0.001816449916775358</v>
       </c>
     </row>
   </sheetData>
